--- a/source-data/dataPortugal/CES_SRV_000002637_v1_PT.xlsx
+++ b/source-data/dataPortugal/CES_SRV_000002637_v1_PT.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vandeloc\Documents\Documents\CoS\Pilot - PortugalSpain data transform\Github - Data transformation\source-data\dataPortugal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="Serviços Públicos" r:id="rId3" sheetId="1"/>
-    <sheet name="Âmbito Territorial" r:id="rId4" sheetId="2"/>
-    <sheet name="Tipos de Serviço" r:id="rId5" sheetId="3"/>
-    <sheet name="Categorias" r:id="rId6" sheetId="4"/>
-    <sheet name="Eventos de Vida" r:id="rId7" sheetId="5"/>
-    <sheet name="Eventos de Negócio" r:id="rId8" sheetId="6"/>
-    <sheet name="Atividades Económicas" r:id="rId9" sheetId="7"/>
-    <sheet name="Entidades" r:id="rId10" sheetId="8"/>
-    <sheet name="Destinatários" r:id="rId11" sheetId="9"/>
-    <sheet name="Requisitos" r:id="rId12" sheetId="10"/>
-    <sheet name="Destinatários do Requisito" r:id="rId13" sheetId="11"/>
-    <sheet name="Resultados" r:id="rId14" sheetId="12"/>
-    <sheet name="Legislação" r:id="rId15" sheetId="13"/>
-    <sheet name="Regras" r:id="rId16" sheetId="14"/>
-    <sheet name="Legislação e Regras" r:id="rId17" sheetId="15"/>
-    <sheet name="Variáveis" r:id="rId18" sheetId="16"/>
-    <sheet name="Taxas e Custos" r:id="rId19" sheetId="17"/>
-    <sheet name="Serviços Relacionados" r:id="rId20" sheetId="18"/>
+    <sheet name="Serviços Públicos" sheetId="1" r:id="rId1"/>
+    <sheet name="Âmbito Territorial" sheetId="2" r:id="rId2"/>
+    <sheet name="Tipos de Serviço" sheetId="3" r:id="rId3"/>
+    <sheet name="Categorias" sheetId="4" r:id="rId4"/>
+    <sheet name="Eventos de Vida" sheetId="5" r:id="rId5"/>
+    <sheet name="Eventos de Negócio" sheetId="6" r:id="rId6"/>
+    <sheet name="Atividades Económicas" sheetId="7" r:id="rId7"/>
+    <sheet name="Entidades" sheetId="8" r:id="rId8"/>
+    <sheet name="Destinatários" sheetId="9" r:id="rId9"/>
+    <sheet name="Requisitos" sheetId="10" r:id="rId10"/>
+    <sheet name="Destinatários do Requisito" sheetId="11" r:id="rId11"/>
+    <sheet name="Resultados" sheetId="12" r:id="rId12"/>
+    <sheet name="Legislação" sheetId="13" r:id="rId13"/>
+    <sheet name="Regras" sheetId="14" r:id="rId14"/>
+    <sheet name="Legislação e Regras" sheetId="15" r:id="rId15"/>
+    <sheet name="Variáveis" sheetId="16" r:id="rId16"/>
+    <sheet name="Taxas e Custos" sheetId="17" r:id="rId17"/>
+    <sheet name="Serviços Relacionados" sheetId="18" r:id="rId18"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1078,9 +1085,6 @@
     <t>Motivos de recusa</t>
   </si>
   <si>
-    <t>&lt;P&gt;&lt;STRONG&gt;&lt;/STRONG&gt;&amp;nbsp;&lt;/P&gt;&lt;UL&gt;&lt;LI&gt;&lt;STRONG&gt;Mera comunicação prévia mal instruída&lt;/STRONG&gt;&lt;/LI&gt;&lt;/UL&gt;&lt;P&gt;&lt;STRONG&gt;&lt;/STRONG&gt;&amp;nbsp;&lt;/P&gt;&lt;P&gt;Falta de preenchimento de um ou mais campos do formulário que, tratando-se de campos obrigatórios impossibilita a submissão.&lt;/P&gt;&lt;P&gt;Utilização de documentos com validade expirada.&lt;/P&gt;&lt;P&gt;&amp;nbsp;&lt;/P&gt;&lt;UL&gt;&lt;LI&gt;&lt;STRONG&gt;Mera comunicação prévia&amp;nbsp; apresentada por pessoa sem poderes para o ato&lt;/STRONG&gt;&lt;/LI&gt;&lt;/UL&gt;&lt;P&gt;&lt;STRONG&gt;&lt;/STRONG&gt;&amp;nbsp;&lt;/P&gt;&lt;P&gt;Falta de legitimidade do interessado para apresentar a comunicação ou comunicação não assinada. &lt;/P&gt;&lt;P&gt;&amp;nbsp;&lt;/P&gt;&lt;UL&gt;&lt;LI&gt;&lt;STRONG&gt;Falta de pagamento de taxa&lt;/STRONG&gt;&lt;/LI&gt;&lt;/UL&gt;&lt;P&gt;&lt;STRONG&gt;&lt;/STRONG&gt;&amp;nbsp;&lt;/P&gt;&lt;P&gt;Falta de pagamento de qualquer taxa devida impossibilita a conclusão do procedimento (obtenção do comprovativo).&lt;/P&gt;&lt;P&gt;&amp;nbsp;&lt;/P&gt;&lt;UL&gt;&lt;LI&gt;&lt;STRONG&gt;Não declaração do cumprimento dos critérios/obrigações&lt;/STRONG&gt;&lt;/LI&gt;&lt;/UL&gt;&lt;P&gt;&amp;nbsp;&lt;/P&gt;&lt;P&gt;A falta da declaração do cumprimento dos critérios e das obrigações aplicáveis, bem como da declaração de que as informações prestadas correspondem à verdade as quais impossibilitam a submissão da mera comunicação prévia.&lt;BR&gt;&amp;nbsp;&lt;/P&gt;</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -1142,16 +1146,18 @@
   </si>
   <si>
     <t>Tipo de Relação</t>
+  </si>
+  <si>
+    <t>&lt;P&gt;&lt;STRONG&gt;&lt;/STRONG&gt;&amp;nbsp;&lt;/P&gt;&lt;UL&gt;&lt;LI&gt;&lt;STRONG&gt;Mera comunicação prévia mal instruída&lt;/STRONG&gt;&lt;/LI&gt;&lt;/UL&gt;&lt;P&gt;&lt;STRONG&gt;&lt;/STRONG&gt;&amp;nbsp;&lt;/P&gt;&lt;P&gt;Falta de preenchimento de um ou mais campos do formulário que, tratando-se de campos obrigatórios impossibilita a submissão.&lt;/P&gt;&lt;P&gt;Utilização de documentos com validade expirada.&lt;/P&gt;&lt;P&gt;&amp;nbsp;&lt;/P&gt;&lt;UL&gt;&lt;LI&gt;&lt;STRONG&gt;Mera comunicação prévia&amp;nbsp; apresentada por pessoa sem poderes para o ato&lt;/STRONG&gt;&lt;/LI&gt;&lt;/UL&gt;&lt;P&gt;&amp;nbsp;&lt;/P&gt;&lt;P&gt;Falta de legitimidade do interessado para apresentar a comunicação ou comunicação não assinada. &lt;/P&gt;&lt;P&gt;&amp;nbsp;&lt;/P&gt;&lt;UL&gt;&lt;LI&gt;&lt;STRONG&gt;Falta de pagamento de taxa&lt;/STRONG&gt;&lt;/LI&gt;&lt;/UL&gt;&lt;P&gt;&lt;STRONG&gt;&lt;/STRONG&gt;&amp;nbsp;&lt;/P&gt;&lt;P&gt;Falta de pagamento de qualquer taxa devida impossibilita a conclusão do procedimento (obtenção do comprovativo).&lt;/P&gt;&lt;P&gt;&amp;nbsp;&lt;/P&gt;&lt;UL&gt;&lt;LI&gt;&lt;STRONG&gt;Não declaração do cumprimento dos critérios/obrigações&lt;/STRONG&gt;&lt;/LI&gt;&lt;/UL&gt;&lt;P&gt;&amp;nbsp;&lt;/P&gt;&lt;P&gt;A falta da declaração do cumprimento dos critérios e das obrigações aplicáveis, bem como da declaração de que as informações prestadas correspondem à verdade as quais impossibilitam a submissão da mera comunicação prévia.&lt;BR&gt;&amp;nbsp;&lt;/P&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1163,7 +1169,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1181,18 +1187,292 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1263,19 +1543,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1292,7 +1572,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1307,19 +1587,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1331,19 +1611,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1361,19 +1641,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1390,7 +1670,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1408,19 +1688,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1434,7 +1716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1448,7 +1730,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1459,75 +1741,75 @@
         <v>348</v>
       </c>
       <c r="D3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>350</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>351</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>353</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>354</v>
       </c>
-      <c r="D5" t="s">
-        <v>355</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" t="s">
         <v>356</v>
       </c>
-      <c r="C1" t="s">
-        <v>357</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1539,19 +1821,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1565,88 +1847,88 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" t="s">
         <v>358</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>359</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>360</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>361</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>363</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>364</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>365</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>366</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>367</v>
       </c>
-      <c r="H2" t="s">
-        <v>368</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.0</v>
+      <c r="I2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" t="s">
         <v>369</v>
       </c>
-      <c r="C1" t="s">
-        <v>370</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1655,19 +1937,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1676,19 +1958,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1697,19 +1979,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1718,19 +2000,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1739,19 +2021,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1759,7 +2041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1767,7 +2049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1776,19 +2058,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C302"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1799,7 +2081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +2092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1821,7 +2103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1832,7 +2114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1843,7 +2125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1854,7 +2136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1865,7 +2147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1876,7 +2158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1887,7 +2169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1898,7 +2180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1909,7 +2191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1920,7 +2202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1931,7 +2213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1942,7 +2224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1953,7 +2235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1964,7 +2246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1975,7 +2257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1986,7 +2268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1997,7 +2279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2008,7 +2290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2019,7 +2301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2030,7 +2312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2041,7 +2323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2052,7 +2334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2063,7 +2345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -2074,7 +2356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2085,7 +2367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2096,7 +2378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2107,7 +2389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2118,7 +2400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2129,7 +2411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2140,7 +2422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2151,7 +2433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2162,7 +2444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2173,7 +2455,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2184,7 +2466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2195,7 +2477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2206,7 +2488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2217,7 +2499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2228,7 +2510,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2239,7 +2521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2250,7 +2532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2261,7 +2543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2272,7 +2554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2283,7 +2565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2294,7 +2576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2305,7 +2587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2316,7 +2598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2327,7 +2609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2338,7 +2620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2349,7 +2631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2360,7 +2642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2371,7 +2653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -2382,7 +2664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2393,7 +2675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2404,7 +2686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2415,7 +2697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2426,7 +2708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2437,7 +2719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2448,7 +2730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2459,7 +2741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2470,7 +2752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2481,7 +2763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -2492,7 +2774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -2503,7 +2785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -2514,7 +2796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -2525,7 +2807,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -2536,7 +2818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2547,7 +2829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2558,7 +2840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2569,7 +2851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -2580,7 +2862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2591,7 +2873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -2602,7 +2884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2613,7 +2895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -2624,7 +2906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -2635,7 +2917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -2646,7 +2928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -2657,7 +2939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -2668,7 +2950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -2679,7 +2961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -2690,7 +2972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2701,7 +2983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -2712,7 +2994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -2723,7 +3005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -2734,7 +3016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -2745,7 +3027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -2756,7 +3038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -2767,7 +3049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -2778,7 +3060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -2789,7 +3071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -2800,7 +3082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -2811,7 +3093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -2822,7 +3104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2833,7 +3115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -2844,7 +3126,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -2855,7 +3137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -2866,7 +3148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -2877,7 +3159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -2888,7 +3170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -2899,7 +3181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -2910,7 +3192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -2921,7 +3203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -2932,7 +3214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -2943,7 +3225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -2954,7 +3236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -2965,7 +3247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -2976,7 +3258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -2987,7 +3269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -2998,7 +3280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -3009,7 +3291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -3020,7 +3302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -3031,7 +3313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -3042,7 +3324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -3053,7 +3335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -3064,7 +3346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -3075,7 +3357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>12</v>
       </c>
@@ -3086,7 +3368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3097,7 +3379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -3108,7 +3390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -3119,7 +3401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -3130,7 +3412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -3141,7 +3423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -3152,7 +3434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -3163,7 +3445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -3174,7 +3456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -3185,7 +3467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -3196,7 +3478,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -3207,7 +3489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -3218,7 +3500,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -3229,7 +3511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -3240,7 +3522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -3251,7 +3533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -3262,7 +3544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -3273,7 +3555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -3284,7 +3566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -3295,7 +3577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -3306,7 +3588,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -3317,7 +3599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -3328,7 +3610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -3339,7 +3621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -3350,7 +3632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -3361,7 +3643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -3372,7 +3654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -3383,7 +3665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -3394,7 +3676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -3405,7 +3687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -3416,7 +3698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -3427,7 +3709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -3438,7 +3720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -3449,7 +3731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -3460,7 +3742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -3471,7 +3753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -3482,7 +3764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -3493,7 +3775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -3504,7 +3786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -3515,7 +3797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -3526,7 +3808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -3537,7 +3819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -3548,7 +3830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -3559,7 +3841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -3570,7 +3852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -3581,7 +3863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -3592,7 +3874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -3603,7 +3885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -3614,7 +3896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -3625,7 +3907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -3636,7 +3918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -3647,7 +3929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>12</v>
       </c>
@@ -3658,7 +3940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -3669,7 +3951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -3680,7 +3962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -3691,7 +3973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>12</v>
       </c>
@@ -3702,7 +3984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -3713,7 +3995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -3724,7 +4006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -3735,7 +4017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -3746,7 +4028,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -3757,7 +4039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -3768,7 +4050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>12</v>
       </c>
@@ -3779,7 +4061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>12</v>
       </c>
@@ -3790,7 +4072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -3801,7 +4083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>12</v>
       </c>
@@ -3812,7 +4094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>12</v>
       </c>
@@ -3823,7 +4105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -3834,7 +4116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>12</v>
       </c>
@@ -3845,7 +4127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -3856,7 +4138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -3867,7 +4149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -3878,7 +4160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>12</v>
       </c>
@@ -3889,7 +4171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>12</v>
       </c>
@@ -3900,7 +4182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -3911,7 +4193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>12</v>
       </c>
@@ -3922,7 +4204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -3933,7 +4215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -3944,7 +4226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -3955,7 +4237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>12</v>
       </c>
@@ -3966,7 +4248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -3977,7 +4259,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -3988,7 +4270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -3999,7 +4281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>12</v>
       </c>
@@ -4010,7 +4292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>12</v>
       </c>
@@ -4021,7 +4303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -4032,7 +4314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>12</v>
       </c>
@@ -4043,7 +4325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -4054,7 +4336,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -4065,7 +4347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -4076,7 +4358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -4087,7 +4369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>12</v>
       </c>
@@ -4098,7 +4380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>12</v>
       </c>
@@ -4109,7 +4391,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>12</v>
       </c>
@@ -4120,7 +4402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -4131,7 +4413,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>12</v>
       </c>
@@ -4142,7 +4424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>12</v>
       </c>
@@ -4153,7 +4435,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -4164,7 +4446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>12</v>
       </c>
@@ -4175,7 +4457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>12</v>
       </c>
@@ -4186,7 +4468,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -4197,7 +4479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>12</v>
       </c>
@@ -4208,7 +4490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -4219,7 +4501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>12</v>
       </c>
@@ -4230,7 +4512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -4241,7 +4523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>12</v>
       </c>
@@ -4252,7 +4534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>12</v>
       </c>
@@ -4263,7 +4545,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -4274,7 +4556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>12</v>
       </c>
@@ -4285,7 +4567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>12</v>
       </c>
@@ -4296,7 +4578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>12</v>
       </c>
@@ -4307,7 +4589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>12</v>
       </c>
@@ -4318,7 +4600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>12</v>
       </c>
@@ -4329,7 +4611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -4340,7 +4622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -4351,7 +4633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>12</v>
       </c>
@@ -4362,7 +4644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>12</v>
       </c>
@@ -4373,7 +4655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>12</v>
       </c>
@@ -4384,7 +4666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>12</v>
       </c>
@@ -4395,7 +4677,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -4406,7 +4688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>12</v>
       </c>
@@ -4417,7 +4699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>12</v>
       </c>
@@ -4428,7 +4710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>12</v>
       </c>
@@ -4439,7 +4721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>12</v>
       </c>
@@ -4450,7 +4732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>12</v>
       </c>
@@ -4461,7 +4743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -4472,7 +4754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>12</v>
       </c>
@@ -4483,7 +4765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>12</v>
       </c>
@@ -4494,7 +4776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>12</v>
       </c>
@@ -4505,7 +4787,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>12</v>
       </c>
@@ -4516,7 +4798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>12</v>
       </c>
@@ -4527,7 +4809,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -4538,7 +4820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>12</v>
       </c>
@@ -4549,7 +4831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>12</v>
       </c>
@@ -4560,7 +4842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>12</v>
       </c>
@@ -4571,7 +4853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>12</v>
       </c>
@@ -4582,7 +4864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -4593,7 +4875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -4604,7 +4886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -4615,7 +4897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>12</v>
       </c>
@@ -4626,7 +4908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>12</v>
       </c>
@@ -4637,7 +4919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -4648,7 +4930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -4659,7 +4941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>12</v>
       </c>
@@ -4670,7 +4952,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -4681,7 +4963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -4692,7 +4974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -4703,7 +4985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>12</v>
       </c>
@@ -4714,7 +4996,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -4725,7 +5007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>12</v>
       </c>
@@ -4736,7 +5018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -4747,7 +5029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>12</v>
       </c>
@@ -4758,7 +5040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -4769,7 +5051,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>12</v>
       </c>
@@ -4780,7 +5062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>12</v>
       </c>
@@ -4791,7 +5073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>12</v>
       </c>
@@ -4802,7 +5084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>12</v>
       </c>
@@ -4813,7 +5095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>12</v>
       </c>
@@ -4824,7 +5106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>12</v>
       </c>
@@ -4835,7 +5117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -4846,7 +5128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -4857,7 +5139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -4868,7 +5150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -4879,7 +5161,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>12</v>
       </c>
@@ -4890,7 +5172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -4901,7 +5183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>12</v>
       </c>
@@ -4912,7 +5194,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -4923,7 +5205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>12</v>
       </c>
@@ -4934,7 +5216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>12</v>
       </c>
@@ -4945,7 +5227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>12</v>
       </c>
@@ -4956,7 +5238,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>12</v>
       </c>
@@ -4967,7 +5249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>12</v>
       </c>
@@ -4978,7 +5260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -4989,7 +5271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>12</v>
       </c>
@@ -5000,7 +5282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>12</v>
       </c>
@@ -5011,7 +5293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -5022,7 +5304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -5033,7 +5315,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>12</v>
       </c>
@@ -5044,7 +5326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -5055,7 +5337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>12</v>
       </c>
@@ -5066,7 +5348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>12</v>
       </c>
@@ -5077,7 +5359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>12</v>
       </c>
@@ -5088,7 +5370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -5099,7 +5381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>12</v>
       </c>
@@ -5111,19 +5393,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -5141,6 +5423,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>